--- a/rezultati testiranja - fftw.xlsx
+++ b/rezultati testiranja - fftw.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="79">
   <si>
     <t>INPUT</t>
   </si>
@@ -249,6 +249,21 @@
   </si>
   <si>
     <t>microIR</t>
+  </si>
+  <si>
+    <t>OMP</t>
+  </si>
+  <si>
+    <t>INIT_IR</t>
+  </si>
+  <si>
+    <t>REVERB</t>
+  </si>
+  <si>
+    <t>noOMP</t>
+  </si>
+  <si>
+    <t>impulsni odziv je LEHStereo</t>
   </si>
 </sst>
 </file>
@@ -484,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -584,12 +599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,11 +617,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,10 +685,10 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="50000"/>
                     <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mj-ea"/>
@@ -678,9 +696,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Reverb</a:t>
+              <a:rPr lang="sr-Latn-RS" sz="1400" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Reverb - gtr.wav</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -700,10 +729,10 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mj-ea"/>
@@ -726,7 +755,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$4:$L$4</c:f>
+              <c:f>'slozena tabela'!$K$17:$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -752,41 +781,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
+              <c:f>'slozena tabela'!$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$4:$P$4</c:f>
+              <c:f>'slozena tabela'!$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>17.364500000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.37916666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.46466666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150.16200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +808,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$5:$L$5</c:f>
+              <c:f>'slozena tabela'!$K$18:$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -811,7 +822,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="3399FF"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -821,41 +832,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
+              <c:f>'slozena tabela'!$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$5:$P$5</c:f>
+              <c:f>'slozena tabela'!$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>23.6179666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.876100000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.673133333333329</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>180.58900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,11 +859,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$6:$L$6</c:f>
+              <c:f>'slozena tabela'!$K$19:$L$19</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>LEHMono</c:v>
+                  <c:v>PlateIR</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -892,41 +885,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
+              <c:f>'slozena tabela'!$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$6:$P$6</c:f>
+              <c:f>'slozena tabela'!$M$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>209.39266666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>412.73466666666673</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>304.84966666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2029.4000000000003</c:v>
+                  <c:v>91.090199999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,11 +912,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$7:$L$7</c:f>
+              <c:f>'slozena tabela'!$K$20:$L$20</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>LEHMono</c:v>
+                  <c:v>PlateIR</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -961,41 +936,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
+              <c:f>'slozena tabela'!$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$7:$P$7</c:f>
+              <c:f>'slozena tabela'!$M$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>84.178700000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>147.71466666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110.59733333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>710.51133333333337</c:v>
+                  <c:v>44.764366666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,151 +963,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$8:$L$8</c:f>
+              <c:f>'slozena tabela'!$K$21:$L$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>LEHStereo</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FFTW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$8:$P$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>219.596</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>426.20499999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>311.78433333333328</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2106.5633333333335</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$9:$L$9</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LEHStereo</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cuFFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0">
-                <a:alpha val="75000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$9:$P$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>82.742533333333327</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>145.83333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111.17666666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>716.09233333333339</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$10:$L$10</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>PlateIR</c:v>
+                  <c:v>T65 phone</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -1172,56 +989,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
+              <c:f>'slozena tabela'!$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$10:$P$10</c:f>
+              <c:f>'slozena tabela'!$M$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>91.090199999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>177.37899999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>133.28833333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>874.25</c:v>
+                  <c:v>177.45066666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$11:$L$11</c:f>
+              <c:f>'slozena tabela'!$K$22:$L$22</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>PlateIR</c:v>
+                  <c:v>T65 phone</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -1241,41 +1040,127 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
+              <c:f>'slozena tabela'!$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$11:$P$11</c:f>
+              <c:f>'slozena tabela'!$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>44.764366666666668</c:v>
+                  <c:v>72.957599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$23:$L$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHMono</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.676566666666659</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.762233333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>387.96233333333333</c:v>
+                  <c:v>FFTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>209.39266666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$24:$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cuFFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>84.178700000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,11 +1171,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$12:$L$12</c:f>
+              <c:f>'slozena tabela'!$K$25:$L$25</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>T65 phone</c:v>
+                  <c:v>LEHStereo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -1312,41 +1197,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
+              <c:f>'slozena tabela'!$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$12:$P$12</c:f>
+              <c:f>'slozena tabela'!$M$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>177.45066666666671</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>347.91933333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>249.04833333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1643.3766666666668</c:v>
+                  <c:v>219.596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,11 +1224,11 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$13:$L$13</c:f>
+              <c:f>'slozena tabela'!$K$26:$L$26</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>T65 phone</c:v>
+                  <c:v>LEHStereo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -1381,41 +1248,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$3:$P$3</c:f>
+              <c:f>'slozena tabela'!$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$13:$P$13</c:f>
+              <c:f>'slozena tabela'!$M$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>72.957599999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121.848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.673733333333345</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>607.49233333333325</c:v>
+                  <c:v>82.742533333333327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,17 +1278,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-25"/>
-        <c:axId val="1854638560"/>
-        <c:axId val="1854622240"/>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="-1634507600"/>
+        <c:axId val="-1634504880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1854638560"/>
+        <c:axId val="-1634507600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1456,43 +1305,10 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1854622240"/>
+        <c:crossAx val="-1634504880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1500,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1854622240"/>
+        <c:axId val="-1634504880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,87 +1336,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sr-Latn-RS"/>
-                  <a:t>Vreme</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="sr-Latn-RS" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>[ms]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1630,9 +1367,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1854638560"/>
+        <c:crossAx val="-1634507600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:pattFill prst="ltDnDiag">
@@ -1755,8 +1494,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Initialization</a:t>
+              <a:rPr lang="sr-Latn-RS" sz="1400" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Reverb - vocal.wav</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1807,7 +1550,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>cab</c:v>
+                  <c:v>cabinetIR </c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -1829,41 +1572,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
+              <c:f>'slozena tabela'!$M$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$17:$P$17</c:f>
+              <c:f>'slozena tabela'!$M$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.12482666666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13667266666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12948766666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15377733333333335</c:v>
+                  <c:v>32.37916666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,7 +1603,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>cab</c:v>
+                  <c:v>cabinetIR </c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -1888,7 +1613,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="3399FF"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1898,41 +1623,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
+              <c:f>'slozena tabela'!$M$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$18:$P$18</c:f>
+              <c:f>'slozena tabela'!$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.23249066666666665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19809066666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20596266666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20875733333333332</c:v>
+                  <c:v>35.876100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,11 +1650,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$23:$L$23</c:f>
+              <c:f>'slozena tabela'!$K$19:$L$19</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HallM</c:v>
+                  <c:v>PlateIR</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -1969,41 +1676,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
+              <c:f>'slozena tabela'!$M$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$23:$P$23</c:f>
+              <c:f>'slozena tabela'!$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1256900000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2071100000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5062833333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2702266666666664</c:v>
+                  <c:v>177.37899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,11 +1703,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$24:$L$24</c:f>
+              <c:f>'slozena tabela'!$K$20:$L$20</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HallM</c:v>
+                  <c:v>PlateIR</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -2028,7 +1717,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ED7D2D"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2038,41 +1727,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
+              <c:f>'slozena tabela'!$M$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$24:$P$24</c:f>
+              <c:f>'slozena tabela'!$M$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.3466666666666662</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5201066666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5128843333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2579100000000003</c:v>
+                  <c:v>82.676566666666659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,151 +1754,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$25:$L$25</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>HallS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FFTW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$25:$P$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.0141033333333338</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3622033333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2450299999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2776999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$26:$L$26</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>HallS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cuFFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0">
-                <a:alpha val="75000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$26:$P$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.3061766666666657</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.443296666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.4713166666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1849600000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
               <c:f>'slozena tabela'!$K$21:$L$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Plate</c:v>
+                  <c:v>T65 phone</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -2249,41 +1780,127 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
+              <c:f>'slozena tabela'!$M$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$21:$P$21</c:f>
+              <c:f>'slozena tabela'!$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1732399999999998</c:v>
+                  <c:v>347.91933333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>T65 phone</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4571900000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2856233333333331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3379633333333332</c:v>
+                  <c:v>cuFFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vocal.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>121.848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$23:$L$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vocal.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>412.73466666666673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2294,11 +1911,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$22:$L$22</c:f>
+              <c:f>'slozena tabela'!$K$24:$L$24</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Plate</c:v>
+                  <c:v>LEHMono</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -2308,7 +1925,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2316,43 +1935,39 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
+              <c:f>'slozena tabela'!$M$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$22:$P$22</c:f>
+              <c:f>'slozena tabela'!$M$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7194133333333337</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8802033333333328</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.89533</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6659633333333335</c:v>
+                  <c:v>147.71466666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,11 +1978,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$19:$L$19</c:f>
+              <c:f>'slozena tabela'!$K$25:$L$25</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>T65</c:v>
+                  <c:v>LEHStereo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -2389,41 +2004,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
+              <c:f>'slozena tabela'!$M$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$19:$P$19</c:f>
+              <c:f>'slozena tabela'!$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.8603866666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9628466666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9654099999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1404033333333334</c:v>
+                  <c:v>426.20499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,11 +2031,11 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$20:$L$20</c:f>
+              <c:f>'slozena tabela'!$K$26:$L$26</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>T65</c:v>
+                  <c:v>LEHStereo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -2448,7 +2045,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="70AD47"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2458,41 +2055,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$M$15:$P$16</c:f>
+              <c:f>'slozena tabela'!$M$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gtr.wav</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>vocal.wav</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>guitar_clean.wav</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>horror_bells.wav</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$20:$P$20</c:f>
+              <c:f>'slozena tabela'!$M$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7432966666666672</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5805933333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5495033333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8828933333333331</c:v>
+                  <c:v>145.83333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,17 +2085,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-25"/>
-        <c:axId val="1854639104"/>
-        <c:axId val="1854639648"/>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="-1634492368"/>
+        <c:axId val="-1634503792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1854639104"/>
+        <c:axId val="-1634492368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2536,40 +2115,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1854639648"/>
+        <c:crossAx val="-1634503792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2577,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1854639648"/>
+        <c:axId val="-1634503792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,77 +2143,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2698,7 +2174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1854639104"/>
+        <c:crossAx val="-1634492368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2823,9 +2299,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Initialization</a:t>
+              <a:rPr lang="sr-Latn-RS" sz="1400" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Reverb - guitar_clean.wav</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2871,11 +2356,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$17:$L$17</c:f>
+              <c:f>'slozena tabela'!$N$17:$O$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>cab</c:v>
+                  <c:v>cabinetIR </c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -2895,14 +2380,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$17</c:f>
+              <c:f>'slozena tabela'!$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.12482666666666668</c:v>
+                  <c:v>23.46466666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2913,11 +2409,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$18:$L$18</c:f>
+              <c:f>'slozena tabela'!$N$18:$O$18</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>cab</c:v>
+                  <c:v>cabinetIR </c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -2935,14 +2431,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$18</c:f>
+              <c:f>'slozena tabela'!$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.23249066666666665</c:v>
+                  <c:v>27.673133333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2953,11 +2460,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$23:$L$23</c:f>
+              <c:f>'slozena tabela'!$N$19:$O$19</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HallM</c:v>
+                  <c:v>PlateIR</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -2977,14 +2484,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$23</c:f>
+              <c:f>'slozena tabela'!$P$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1256900000000001</c:v>
+                  <c:v>133.28833333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,11 +2513,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$24:$L$24</c:f>
+              <c:f>'slozena tabela'!$N$20:$O$20</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HallM</c:v>
+                  <c:v>PlateIR</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -3017,14 +2535,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$24</c:f>
+              <c:f>'slozena tabela'!$P$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.3466666666666662</c:v>
+                  <c:v>60.762233333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,93 +2564,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$25:$L$25</c:f>
+              <c:f>'slozena tabela'!$N$21:$O$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HallS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FFTW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5.0141033333333338</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$26:$L$26</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>HallS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cuFFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0">
-                <a:alpha val="75000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6.3061766666666657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$21:$L$21</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Plate</c:v>
+                  <c:v>T65 phone</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -3141,29 +2588,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$21</c:f>
+              <c:f>'slozena tabela'!$P$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1732399999999998</c:v>
+                  <c:v>249.04833333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$22:$L$22</c:f>
+              <c:f>'slozena tabela'!$N$22:$O$22</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Plate</c:v>
+                  <c:v>T65 phone</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -3181,14 +2639,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$22</c:f>
+              <c:f>'slozena tabela'!$P$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7194133333333337</c:v>
+                  <c:v>89.673733333333345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$N$23:$O$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>304.84966666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$N$24:$O$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cuFFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110.59733333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3199,11 +2772,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$19:$L$19</c:f>
+              <c:f>'slozena tabela'!$N$25:$O$25</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>T65</c:v>
+                  <c:v>LEHStereo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -3223,14 +2796,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$19</c:f>
+              <c:f>'slozena tabela'!$P$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.8603866666666666</c:v>
+                  <c:v>311.78433333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,11 +2825,11 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$20:$L$20</c:f>
+              <c:f>'slozena tabela'!$N$26:$O$26</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>T65</c:v>
+                  <c:v>LEHStereo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -3263,14 +2847,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$20</c:f>
+              <c:f>'slozena tabela'!$P$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7432966666666672</c:v>
+                  <c:v>111.17666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,11 +2881,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="1854641280"/>
-        <c:axId val="1854641824"/>
+        <c:axId val="-1634462448"/>
+        <c:axId val="-1634462992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1854641280"/>
+        <c:axId val="-1634462448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,7 +2909,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854641824"/>
+        <c:crossAx val="-1634462992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3322,7 +2917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1854641824"/>
+        <c:axId val="-1634462992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3342,63 +2937,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3429,7 +2968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1854641280"/>
+        <c:crossAx val="-1634462448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3554,9 +3093,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Initialization</a:t>
+              <a:rPr lang="sr-Latn-RS" sz="1400" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Reverb - horror_bells.wav</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3602,11 +3150,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$17:$L$17</c:f>
+              <c:f>'slozena tabela'!$N$4:$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>cab</c:v>
+                  <c:v>cabinetIR </c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -3626,14 +3174,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$17</c:f>
+              <c:f>'slozena tabela'!$P$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.12482666666666668</c:v>
+                  <c:v>150.16200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,11 +3203,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$18:$L$18</c:f>
+              <c:f>'slozena tabela'!$N$5:$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>cab</c:v>
+                  <c:v>cabinetIR </c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -3666,14 +3225,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$18</c:f>
+              <c:f>'slozena tabela'!$P$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.23249066666666665</c:v>
+                  <c:v>180.58900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,11 +3254,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$19:$L$19</c:f>
+              <c:f>'slozena tabela'!$N$6:$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>T65</c:v>
+                  <c:v>PlateIR</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -3708,14 +3278,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$19</c:f>
+              <c:f>'slozena tabela'!$P$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.8603866666666666</c:v>
+                  <c:v>874.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3726,11 +3307,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$20:$L$20</c:f>
+              <c:f>'slozena tabela'!$N$7:$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>T65</c:v>
+                  <c:v>PlateIR</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -3748,14 +3329,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$20</c:f>
+              <c:f>'slozena tabela'!$P$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7432966666666672</c:v>
+                  <c:v>387.96233333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3766,93 +3358,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$21:$L$21</c:f>
+              <c:f>'slozena tabela'!$N$8:$O$8</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Plate</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FFTW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.1732399999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$22:$L$22</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Plate</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cuFFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0">
-                <a:alpha val="75000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.7194133333333337</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$23:$L$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>HallM</c:v>
+                  <c:v>T65 phone</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -3872,29 +3382,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$23</c:f>
+              <c:f>'slozena tabela'!$P$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1256900000000001</c:v>
+                  <c:v>1643.3766666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$24:$L$24</c:f>
+              <c:f>'slozena tabela'!$N$9:$O$9</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HallM</c:v>
+                  <c:v>T65 phone</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -3912,14 +3433,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$24</c:f>
+              <c:f>'slozena tabela'!$P$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.3466666666666662</c:v>
+                  <c:v>607.49233333333325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$N$10:$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2029.4000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$N$11:$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cuFFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>710.51133333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3930,11 +3566,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$25:$L$25</c:f>
+              <c:f>'slozena tabela'!$N$12:$O$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HallS</c:v>
+                  <c:v>LEHStereo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FFTW</c:v>
@@ -3954,14 +3590,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$25</c:f>
+              <c:f>'slozena tabela'!$P$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.0141033333333338</c:v>
+                  <c:v>2106.5633333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,11 +3619,11 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$26:$L$26</c:f>
+              <c:f>'slozena tabela'!$N$13:$O$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HallS</c:v>
+                  <c:v>LEHStereo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>cuFFT</c:v>
@@ -3994,14 +3641,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$26</c:f>
+              <c:f>'slozena tabela'!$P$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.3061766666666657</c:v>
+                  <c:v>716.09233333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4017,11 +3675,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="1854643456"/>
-        <c:axId val="1854644000"/>
+        <c:axId val="-1634499440"/>
+        <c:axId val="-1634492912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1854643456"/>
+        <c:axId val="-1634499440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4045,7 +3703,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854644000"/>
+        <c:crossAx val="-1634492912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4053,7 +3711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1854644000"/>
+        <c:axId val="-1634492912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4073,7 +3731,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4104,7 +3762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1854643456"/>
+        <c:crossAx val="-1634499440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4229,14 +3887,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="sr-Latn-RS"/>
-              <a:t>Odnos</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0"/>
+              <a:t>Reverb OMP and no OMP</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="sr-Latn-RS" baseline="0"/>
-              <a:t> brzina izvršavanja za kraće i duže impulsne odzive</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4282,11 +3935,67 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$G$34:$H$34</c:f>
+              <c:f>neobradjeno!$C$73:$D$73</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>gtr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cabIR FFTW</c:v>
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>249.33500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$74:$D$74</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>gtr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>noOMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4301,42 +4010,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!#REF!</c:f>
+              <c:f>neobradjeno!$E$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>472.01249999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$G$35:$H$35</c:f>
+              <c:f>neobradjeno!$C$75:$D$75</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cabIR cuFFT</c:v>
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>242.2465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$76:$D$76</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>noOMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4351,36 +4114,52 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$O$34</c:f>
+              <c:f>neobradjeno!$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27.673133333333329</c:v>
+                  <c:v>872.98540000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$35:$L$35</c:f>
+              <c:f>neobradjeno!$C$77:$D$77</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Edge FFTW</c:v>
+                  <c:v>vocal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4388,29 +4167,43 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$35</c:f>
+              <c:f>neobradjeno!$E$77</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40.186766666666664</c:v>
+                  <c:v>410.06540000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$G$37:$H$37</c:f>
+              <c:f>neobradjeno!$C$78:$D$78</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Edge cuFFT</c:v>
+                  <c:v>vocal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>noOMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4425,36 +4218,52 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$O$35</c:f>
+              <c:f>neobradjeno!$E$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.966866666666665</c:v>
+                  <c:v>830.35400000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$36:$L$36</c:f>
+              <c:f>neobradjeno!$C$79:$D$79</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Sony MIC FFTW</c:v>
+                  <c:v>horror_bells</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4462,29 +4271,43 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$36</c:f>
+              <c:f>neobradjeno!$E$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50.491566666666664</c:v>
+                  <c:v>2491.2600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'slozena tabela'!$G$39:$H$39</c:f>
+              <c:f>neobradjeno!$C$80:$D$80</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Sony MIC cuFFT</c:v>
+                  <c:v>horror_bells</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>noOMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4499,422 +4322,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$I$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>35.556599999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>'slozena tabela'!$K$37:$L$37</c:f>
+              <c:f>neobradjeno!$E$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fredman FFTW</c:v>
+                  <c:v>REVERB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'slozena tabela'!$M$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>68.347366666666673</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$G$41:$H$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fredman cuFFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$O$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>38.963033333333335</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$38:$L$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PlateIR FFTW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$38</c:f>
+              <c:f>neobradjeno!$E$80</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>133.28833333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$G$43:$H$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PlateIR cuFFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$O$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60.762233333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$39:$L$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T65 phone FFTW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>249.04833333333332</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$G$45:$H$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T65 phone cuFFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$O$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>89.673733333333345</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$40:$L$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LEHMono FFTW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00CC99"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$40</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>304.84966666666668</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$G$47:$H$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LEHMono cuFFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$O$40</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>110.59733333333332</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$K$41:$L$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LEHStereo FFTW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>311.78433333333328</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'slozena tabela'!$G$49:$H$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LEHStereo cuFFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$O$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>111.17666666666666</c:v>
+                  <c:v>6388.7650000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4930,11 +4356,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="1895157920"/>
-        <c:axId val="1895165536"/>
+        <c:axId val="-1634465168"/>
+        <c:axId val="-1634445584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1895157920"/>
+        <c:axId val="-1634465168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4958,7 +4384,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1895165536"/>
+        <c:crossAx val="-1634445584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4966,7 +4392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1895165536"/>
+        <c:axId val="-1634445584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4986,68 +4412,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sr-Latn-RS"/>
-                  <a:t>Vreme </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>[ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5077,9 +4443,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895157920"/>
+        <c:crossAx val="-1634465168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
       </c:valAx>
       <c:spPr>
         <a:pattFill prst="ltDnDiag">
@@ -5101,10 +4468,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="16"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5146,506 +4509,6 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FFTW</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'slozena tabela'!$K$32:$L$41</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'slozena tabela'!$K$32:$K$41</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'slozena tabela'!$K$32:$K$41</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>microIR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>miniIR</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cabIR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Edge</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sony MIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fredman</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PlateIR</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>T65 phone</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LEHMono</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LEHStereo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$M$32:$M$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.65123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2415637000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.46466666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.186766666666664</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.491566666666664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68.347366666666673</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0000">
-                  <c:v>133.28833333333333</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0000">
-                  <c:v>249.04833333333332</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0000">
-                  <c:v>304.84966666666668</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>311.78433333333328</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>cuFFT</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'slozena tabela'!$K$32:$L$41</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'slozena tabela'!$K$32:$K$41</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'slozena tabela'!$K$32:$K$41</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>microIR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>miniIR</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cabIR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Edge</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sony MIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fredman</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PlateIR</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>T65 phone</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LEHMono</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LEHStereo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'slozena tabela'!$O$32:$O$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10.159840000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.789513199999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.673133333333329</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.966866666666665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.556599999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.963033333333335</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0000">
-                  <c:v>60.762233333333334</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0000">
-                  <c:v>89.673733333333345</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0000">
-                  <c:v>110.59733333333332</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>111.17666666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2028720208"/>
-        <c:axId val="2028723472"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2028720208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2028723472"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2028723472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Vreme [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2028720208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5833,46 +4696,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8657,524 +7480,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336178</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9193,20 +7516,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9225,20 +7548,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336178</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9257,20 +7580,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>88106</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9289,20 +7612,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="13" name="Chart 12"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9314,38 +7637,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9619,24 +7910,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N378"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="N55" sqref="A52:N55"/>
+    <sheetView topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12518,7 +10807,9 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -12531,250 +10822,272 @@
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L72" s="49"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="49">
+        <v>249.33500000000001</v>
+      </c>
+      <c r="J73" s="38">
+        <v>8.2316299999999991</v>
+      </c>
+      <c r="K73" s="38">
+        <v>5.1388100000000003</v>
+      </c>
+      <c r="L73" s="49"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74">
+        <v>472.01249999999999</v>
+      </c>
+      <c r="J74">
+        <v>14.01254</v>
+      </c>
+      <c r="K74">
+        <v>8.4594000000000005</v>
+      </c>
+      <c r="L74" s="49"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="38">
+        <v>242.2465</v>
+      </c>
+      <c r="J75" s="38">
+        <v>8.2235899999999997</v>
+      </c>
+      <c r="K75" s="38">
+        <v>5.2458999999999998</v>
+      </c>
+      <c r="L75" s="49"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76">
+        <v>872.98540000000003</v>
+      </c>
+      <c r="J76">
+        <v>13.2456</v>
+      </c>
+      <c r="K76">
+        <v>8.4567999999999994</v>
+      </c>
+      <c r="L76" s="49"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="49">
+        <v>410.06540000000001</v>
+      </c>
+      <c r="J77" s="38">
+        <v>8.1563999999999997</v>
+      </c>
+      <c r="K77" s="38">
+        <v>5.2548000000000004</v>
+      </c>
+      <c r="L77" s="49"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <v>830.35400000000004</v>
+      </c>
+      <c r="J78">
+        <v>14.756399999999999</v>
+      </c>
+      <c r="K78">
+        <v>9.3539999999999992</v>
+      </c>
+      <c r="L78" s="49"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="38">
+        <v>2491.2600000000002</v>
+      </c>
+      <c r="J79" s="38">
+        <v>7.9465399999999997</v>
+      </c>
+      <c r="K79" s="38">
+        <v>5.5670000000000002</v>
+      </c>
+      <c r="L79" s="49"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="49">
+        <v>6388.7650000000003</v>
+      </c>
+      <c r="J80" s="38">
+        <v>13.7546</v>
+      </c>
+      <c r="K80" s="38">
+        <v>9.1564499999999995</v>
+      </c>
+      <c r="L80" s="49"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="49"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="49"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="49"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="49"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -12782,13 +11095,8 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -12796,13 +11104,8 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -12810,13 +11113,8 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -12824,13 +11122,8 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -12838,13 +11131,8 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -12852,13 +11140,8 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -12866,13 +11149,8 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -12896,8 +11174,8 @@
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -12910,8 +11188,8 @@
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -12924,8 +11202,8 @@
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -12938,8 +11216,8 @@
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -12952,8 +11230,8 @@
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -12966,8 +11244,8 @@
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -12980,8 +11258,8 @@
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -12994,8 +11272,8 @@
     </row>
     <row r="105" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -16836,10 +15114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="G29" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16863,35 +15141,43 @@
     <col min="21" max="22" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="K2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-    </row>
-    <row r="3" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="R2" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+    </row>
+    <row r="3" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -16922,21 +15208,37 @@
       <c r="M3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>54</v>
+      <c r="N3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="P3" s="36" t="s">
         <v>55</v>
       </c>
       <c r="Q3" s="36"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="R3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -16960,27 +15262,43 @@
       <c r="K4" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="38" t="s">
         <v>57</v>
       </c>
       <c r="M4" s="3">
         <v>17.364500000000003</v>
       </c>
-      <c r="N4" s="3">
-        <v>32.37916666666667</v>
-      </c>
-      <c r="O4" s="3">
-        <v>23.46466666666667</v>
+      <c r="N4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P4" s="3">
         <v>150.16200000000001</v>
       </c>
       <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
+      <c r="R4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.12482666666666668</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.13667266666666664</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.12948766666666667</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.15377733333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
       <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
@@ -17002,27 +15320,43 @@
       <c r="K5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="38" t="s">
         <v>69</v>
       </c>
       <c r="M5" s="3">
         <v>23.6179666666667</v>
       </c>
-      <c r="N5" s="3">
-        <v>35.876100000000001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>27.673133333333329</v>
+      <c r="N5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="P5" s="3">
         <v>180.58900000000003</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
+      <c r="R5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.23249066666666665</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.19809066666666666</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.20596266666666666</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.20875733333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
@@ -17042,29 +15376,45 @@
         <v>82.742533333333327</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="38" t="s">
         <v>57</v>
       </c>
       <c r="M6" s="3">
-        <v>209.39266666666666</v>
-      </c>
-      <c r="N6" s="3">
-        <v>412.73466666666673</v>
-      </c>
-      <c r="O6" s="3">
-        <v>304.84966666666668</v>
+        <v>91.090199999999996</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P6" s="3">
-        <v>2029.4000000000003</v>
+        <v>874.25</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
+      <c r="R6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1.8603866666666666</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1.9628466666666666</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1.9654099999999997</v>
+      </c>
+      <c r="W6" s="3">
+        <v>2.1404033333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
@@ -17084,29 +15434,45 @@
         <v>44.764366666666668</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="38" t="s">
         <v>69</v>
       </c>
       <c r="M7" s="3">
-        <v>84.178700000000006</v>
-      </c>
-      <c r="N7" s="3">
-        <v>147.71466666666666</v>
-      </c>
-      <c r="O7" s="3">
-        <v>110.59733333333332</v>
+        <v>44.764366666666668</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="P7" s="3">
-        <v>710.51133333333337</v>
+        <v>387.96233333333333</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
+      <c r="R7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2.7432966666666672</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2.5805933333333333</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2.5495033333333335</v>
+      </c>
+      <c r="W7" s="3">
+        <v>2.8828933333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="45"/>
       <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
@@ -17126,28 +15492,44 @@
         <v>72.957599999999999</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="38" t="s">
         <v>57</v>
       </c>
       <c r="M8" s="3">
-        <v>219.596</v>
-      </c>
-      <c r="N8" s="3">
-        <v>426.20499999999998</v>
-      </c>
-      <c r="O8" s="3">
-        <v>311.78433333333328</v>
+        <v>177.45066666666671</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P8" s="3">
-        <v>2106.5633333333335</v>
+        <v>1643.3766666666668</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="3">
+        <v>2.1732399999999998</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2.4571900000000002</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2.2856233333333331</v>
+      </c>
+      <c r="W8" s="3">
+        <v>2.3379633333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
       <c r="D9" s="9"/>
@@ -17156,29 +15538,45 @@
       <c r="G9" s="17"/>
       <c r="H9" s="19"/>
       <c r="K9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>69</v>
       </c>
       <c r="M9" s="3">
-        <v>82.742533333333327</v>
-      </c>
-      <c r="N9" s="3">
-        <v>145.83333333333334</v>
-      </c>
-      <c r="O9" s="3">
-        <v>111.17666666666666</v>
+        <v>72.957599999999999</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="P9" s="3">
-        <v>716.09233333333339</v>
+        <v>607.49233333333325</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="R9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="3">
+        <v>2.7194133333333337</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2.8802033333333328</v>
+      </c>
+      <c r="V9" s="3">
+        <v>2.89533</v>
+      </c>
+      <c r="W9" s="3">
+        <v>2.6659633333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -17200,26 +15598,44 @@
         <v>35.876100000000001</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="38" t="s">
         <v>57</v>
       </c>
       <c r="M10" s="3">
-        <v>91.090199999999996</v>
-      </c>
-      <c r="N10" s="3">
-        <v>177.37899999999999</v>
-      </c>
-      <c r="O10" s="3">
-        <v>133.28833333333333</v>
+        <v>209.39266666666666</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P10" s="3">
-        <v>874.25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+        <v>2029.4000000000003</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="3">
+        <v>2.1256900000000001</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2.2071100000000001</v>
+      </c>
+      <c r="V10" s="3">
+        <v>2.5062833333333336</v>
+      </c>
+      <c r="W10" s="3">
+        <v>2.2702266666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
       <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
@@ -17239,26 +15655,44 @@
         <v>147.71466666666666</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="38" t="s">
         <v>69</v>
       </c>
       <c r="M11" s="3">
-        <v>44.764366666666668</v>
-      </c>
-      <c r="N11" s="3">
-        <v>82.676566666666659</v>
-      </c>
-      <c r="O11" s="3">
-        <v>60.762233333333334</v>
+        <v>84.178700000000006</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="P11" s="3">
-        <v>387.96233333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+        <v>710.51133333333337</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="T11" s="3">
+        <v>3.3466666666666662</v>
+      </c>
+      <c r="U11" s="3">
+        <v>3.5201066666666665</v>
+      </c>
+      <c r="V11" s="3">
+        <v>3.5128843333333335</v>
+      </c>
+      <c r="W11" s="3">
+        <v>3.2579100000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="45"/>
       <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
@@ -17278,29 +15712,45 @@
         <v>145.83333333333334</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="38" t="s">
         <v>57</v>
       </c>
       <c r="M12" s="3">
-        <v>177.45066666666671</v>
-      </c>
-      <c r="N12" s="3">
-        <v>347.91933333333333</v>
-      </c>
-      <c r="O12" s="3">
-        <v>249.04833333333332</v>
+        <v>219.596</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P12" s="3">
-        <v>1643.3766666666668</v>
+        <v>2106.5633333333335</v>
       </c>
       <c r="Q12" s="36"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
+      <c r="R12" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="3">
+        <v>5.0141033333333338</v>
+      </c>
+      <c r="U12" s="3">
+        <v>5.3622033333333334</v>
+      </c>
+      <c r="V12" s="3">
+        <v>5.2450299999999999</v>
+      </c>
+      <c r="W12" s="3">
+        <v>5.2776999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="45"/>
       <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
@@ -17321,29 +15771,45 @@
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="38" t="s">
         <v>69</v>
       </c>
       <c r="M13" s="3">
-        <v>72.957599999999999</v>
-      </c>
-      <c r="N13" s="3">
-        <v>121.848</v>
-      </c>
-      <c r="O13" s="3">
-        <v>89.673733333333345</v>
+        <v>82.742533333333327</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="P13" s="3">
-        <v>607.49233333333325</v>
+        <v>716.09233333333339</v>
       </c>
       <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-    </row>
-    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
+      <c r="R13" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="3">
+        <v>6.3061766666666657</v>
+      </c>
+      <c r="U13" s="3">
+        <v>6.443296666666666</v>
+      </c>
+      <c r="V13" s="3">
+        <v>6.4713166666666666</v>
+      </c>
+      <c r="W13" s="3">
+        <v>6.1849600000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45"/>
       <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
@@ -17373,7 +15839,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15" s="16"/>
       <c r="D15" s="9"/>
@@ -17382,20 +15848,10 @@
       <c r="G15" s="17"/>
       <c r="H15" s="19"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="39" t="s">
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="45" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -17423,24 +15879,21 @@
       <c r="L16" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="24" t="s">
+      <c r="M16" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="N16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="45"/>
       <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
@@ -17461,29 +15914,26 @@
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="36" t="s">
         <v>57</v>
       </c>
       <c r="M17" s="3">
-        <v>0.12482666666666668</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.13667266666666664</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0.12948766666666667</v>
+        <v>32.37916666666667</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P17" s="3">
-        <v>0.15377733333333335</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+        <v>23.46466666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="45"/>
       <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
@@ -17504,29 +15954,26 @@
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="36" t="s">
         <v>69</v>
       </c>
       <c r="M18" s="3">
-        <v>0.23249066666666665</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0.19809066666666666</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0.20596266666666666</v>
+        <v>35.876100000000001</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="P18" s="3">
-        <v>0.20875733333333332</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+        <v>27.673133333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
       <c r="C19" s="10" t="s">
         <v>31</v>
       </c>
@@ -17547,27 +15994,26 @@
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="36" t="s">
         <v>57</v>
       </c>
       <c r="M19" s="3">
-        <v>1.8603866666666666</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1.9628466666666666</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1.9654099999999997</v>
+        <v>177.37899999999999</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P19" s="3">
-        <v>2.1404033333333334</v>
-      </c>
-      <c r="Q19" s="32"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
+        <v>133.28833333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45"/>
       <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
@@ -17588,26 +16034,25 @@
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="37" t="s">
         <v>69</v>
       </c>
       <c r="M20" s="3">
-        <v>2.7432966666666672</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2.5805933333333333</v>
-      </c>
-      <c r="O20" s="3">
-        <v>2.5495033333333335</v>
+        <v>82.676566666666659</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="P20" s="3">
-        <v>2.8828933333333331</v>
-      </c>
-      <c r="Q20" s="32"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60.762233333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="9"/>
@@ -17617,27 +16062,26 @@
       <c r="H21" s="19"/>
       <c r="J21" s="32"/>
       <c r="K21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="36" t="s">
         <v>57</v>
       </c>
       <c r="M21" s="3">
-        <v>2.1732399999999998</v>
-      </c>
-      <c r="N21" s="3">
-        <v>2.4571900000000002</v>
-      </c>
-      <c r="O21" s="3">
-        <v>2.2856233333333331</v>
+        <v>347.91933333333333</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P21" s="3">
-        <v>2.3379633333333332</v>
-      </c>
-      <c r="Q21" s="32"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+        <v>249.04833333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -17660,27 +16104,26 @@
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="24" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="L22" s="24" t="s">
         <v>69</v>
       </c>
       <c r="M22" s="3">
-        <v>2.7194133333333337</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2.8802033333333328</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2.89533</v>
+        <v>121.848</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="P22" s="3">
-        <v>2.6659633333333335</v>
-      </c>
-      <c r="Q22" s="32"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
+        <v>89.673733333333345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="45"/>
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
@@ -17701,27 +16144,26 @@
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="36" t="s">
         <v>57</v>
       </c>
       <c r="M23" s="3">
-        <v>2.1256900000000001</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2.2071100000000001</v>
-      </c>
-      <c r="O23" s="3">
-        <v>2.5062833333333336</v>
+        <v>412.73466666666673</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P23" s="3">
-        <v>2.2702266666666664</v>
-      </c>
-      <c r="Q23" s="32"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+        <v>304.84966666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="45"/>
       <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
@@ -17742,27 +16184,26 @@
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="37" t="s">
         <v>69</v>
       </c>
       <c r="M24" s="3">
-        <v>3.3466666666666662</v>
-      </c>
-      <c r="N24" s="3">
-        <v>3.5201066666666665</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3.5128843333333335</v>
+        <v>147.71466666666666</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="P24" s="3">
-        <v>3.2579100000000003</v>
-      </c>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
+        <v>110.59733333333332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
       <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
@@ -17783,28 +16224,27 @@
       </c>
       <c r="J25" s="32"/>
       <c r="K25" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="36" t="s">
         <v>57</v>
       </c>
       <c r="M25" s="3">
-        <v>5.0141033333333338</v>
-      </c>
-      <c r="N25" s="3">
-        <v>5.3622033333333334</v>
-      </c>
-      <c r="O25" s="3">
-        <v>5.2450299999999999</v>
+        <v>426.20499999999998</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="P25" s="3">
-        <v>5.2776999999999994</v>
-      </c>
-      <c r="Q25" s="32"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>311.78433333333328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="11" t="s">
         <v>32</v>
       </c>
@@ -17825,26 +16265,25 @@
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="37" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="3">
-        <v>6.3061766666666657</v>
-      </c>
-      <c r="N26" s="3">
-        <v>6.443296666666666</v>
-      </c>
-      <c r="O26" s="3">
-        <v>6.4713166666666666</v>
+        <v>145.83333333333334</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="P26" s="3">
-        <v>6.1849600000000002</v>
-      </c>
-      <c r="Q26" s="32"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>111.17666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -17852,7 +16291,7 @@
       <c r="J27" s="32"/>
       <c r="Q27" s="32"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -17860,7 +16299,7 @@
       <c r="J28" s="32"/>
       <c r="Q28" s="32"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -17874,7 +16313,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -17888,7 +16327,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K32" s="37" t="s">
         <v>73</v>
       </c>
@@ -17947,12 +16386,8 @@
       <c r="E34">
         <v>40.186766666666664</v>
       </c>
-      <c r="G34" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>57</v>
-      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
       <c r="K34" s="37" t="s">
         <v>70</v>
       </c>
@@ -17982,12 +16417,8 @@
       <c r="E35">
         <v>50.491566666666664</v>
       </c>
-      <c r="G35" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
       <c r="K35" s="37" t="s">
         <v>61</v>
       </c>
@@ -18034,12 +16465,8 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G37" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
       <c r="K37" s="37" t="s">
         <v>71</v>
       </c>
@@ -18098,15 +16525,9 @@
       <c r="E39">
         <v>30.966866666666665</v>
       </c>
-      <c r="G39" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="37">
-        <v>35.556599999999996</v>
-      </c>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
       <c r="K39" s="24" t="s">
         <v>32</v>
       </c>
@@ -18165,12 +16586,8 @@
       <c r="E41">
         <v>38.963033333333335</v>
       </c>
-      <c r="G41" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
       <c r="K41" s="24" t="s">
         <v>30</v>
       </c>
@@ -18188,36 +16605,20 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G45" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G47" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G49" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="37"/>
     </row>
     <row r="52" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H52" s="37"/>
@@ -18226,16 +16627,14 @@
       <c r="H53" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R2:W2"/>
     <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18245,8 +16644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S107" sqref="S107"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rezultati testiranja - fftw.xlsx
+++ b/rezultati testiranja - fftw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="neobradjeno" sheetId="1" r:id="rId1"/>
@@ -599,6 +599,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -617,20 +626,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1280,11 +1280,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1634507600"/>
-        <c:axId val="-1634504880"/>
+        <c:axId val="-879034304"/>
+        <c:axId val="-879033760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1634507600"/>
+        <c:axId val="-879034304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1308,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1634504880"/>
+        <c:crossAx val="-879033760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1634504880"/>
+        <c:axId val="-879033760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1634507600"/>
+        <c:crossAx val="-879034304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -2087,11 +2087,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1634492368"/>
-        <c:axId val="-1634503792"/>
+        <c:axId val="-879036480"/>
+        <c:axId val="-879042464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1634492368"/>
+        <c:axId val="-879036480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2115,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1634503792"/>
+        <c:crossAx val="-879042464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2123,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1634503792"/>
+        <c:axId val="-879042464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1634492368"/>
+        <c:crossAx val="-879036480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2881,11 +2881,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1634462448"/>
-        <c:axId val="-1634462992"/>
+        <c:axId val="-879033216"/>
+        <c:axId val="-879032672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1634462448"/>
+        <c:axId val="-879033216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2909,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1634462992"/>
+        <c:crossAx val="-879032672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2917,7 +2917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1634462992"/>
+        <c:axId val="-879032672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1634462448"/>
+        <c:crossAx val="-879033216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3675,11 +3675,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1634499440"/>
-        <c:axId val="-1634492912"/>
+        <c:axId val="-879031040"/>
+        <c:axId val="-879027776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1634499440"/>
+        <c:axId val="-879031040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,7 +3703,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1634492912"/>
+        <c:crossAx val="-879027776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3711,7 +3711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1634492912"/>
+        <c:axId val="-879027776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,7 +3762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1634499440"/>
+        <c:crossAx val="-879031040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4356,11 +4356,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1634465168"/>
-        <c:axId val="-1634445584"/>
+        <c:axId val="-879024512"/>
+        <c:axId val="-879023968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1634465168"/>
+        <c:axId val="-879024512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,7 +4384,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1634445584"/>
+        <c:crossAx val="-879023968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4392,7 +4392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1634445584"/>
+        <c:axId val="-879023968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,6 +4412,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vreme [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4443,7 +4499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1634465168"/>
+        <c:crossAx val="-879024512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -4509,6 +4565,2097 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sr-Latn-RS" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Uporedni prikaz izvršavanja CPU i GPU rešenja za različite IR-ove</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'slozena tabela'!$K$32:$L$41</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'slozena tabela'!$K$32:$K$41</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'slozena tabela'!$K$32:$K$41</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>microIR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>miniIR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cabIR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Edge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sony MIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fredman</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PlateIR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T65 phone</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LEHStereo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$32:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.65123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2415637000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.46466666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.186766666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.491566666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.347366666666673</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>133.28833333333333</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0000">
+                  <c:v>249.04833333333332</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>304.84966666666668</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>311.78433333333328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'slozena tabela'!$K$32:$L$41</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'slozena tabela'!$K$32:$K$41</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'slozena tabela'!$K$32:$K$41</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>microIR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>miniIR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cabIR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Edge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sony MIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fredman</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PlateIR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T65 phone</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LEHStereo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$O$32:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.159840000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.789513199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.673133333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.966866666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.556599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.963033333333335</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>60.762233333333334</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0000">
+                  <c:v>89.673733333333345</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>110.59733333333332</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>111.17666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-721234496"/>
+        <c:axId val="-721233408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-721234496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-721233408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-721233408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sr-Latn-RS"/>
+                  <a:t>Vreme </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-721234496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sr-Latn-RS"/>
+              <a:t>Reverb - gtr.wav</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$17:$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>cabinetIR </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17.364500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$18:$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>cabinetIR </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cuFFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.6179666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$19:$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PlateIR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>91.090199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$20:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PlateIR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cuFFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>44.764366666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$21:$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>T65 phone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>177.45066666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>T65 phone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cuFFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>72.957599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$23:$L$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>209.39266666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$24:$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHMono</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cuFFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>84.178700000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$25:$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHStereo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>219.596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'slozena tabela'!$K$26:$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LEHStereo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cuFFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'slozena tabela'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gtr.wav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'slozena tabela'!$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>82.742533333333327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-773010992"/>
+        <c:axId val="-773012624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-773010992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-773012624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-773012624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-773010992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reverb OMP and no OMP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$73:$D$73</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>gtr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>249.33500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$74:$D$74</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>gtr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>noOMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>472.01249999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$75:$D$75</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>242.2465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$76:$D$76</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>guitar_clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>noOMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>872.98540000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$77:$D$77</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>vocal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>410.06540000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$78:$D$78</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>vocal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>noOMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>830.35400000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$79:$D$79</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2491.2600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>neobradjeno!$C$80:$D$80</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>horror_bells</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>noOMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>neobradjeno!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REVERB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>neobradjeno!$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6388.7650000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-773010448"/>
+        <c:axId val="-773006096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-773010448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-773006096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-773006096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sr-Latn-RS"/>
+                  <a:t>Vreme </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-773010448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4735,6 +6882,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
@@ -7475,6 +9742,1528 @@
           <a:schemeClr val="lt1"/>
         </a:bgClr>
       </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -7637,6 +11426,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10831,10 +14716,10 @@
       <c r="J72" t="s">
         <v>57</v>
       </c>
-      <c r="K72" s="49" t="s">
+      <c r="K72" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L72" s="49"/>
+      <c r="L72" s="39"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
@@ -10845,7 +14730,7 @@
       <c r="D73" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="49">
+      <c r="E73" s="39">
         <v>249.33500000000001</v>
       </c>
       <c r="J73" s="38">
@@ -10854,7 +14739,7 @@
       <c r="K73" s="38">
         <v>5.1388100000000003</v>
       </c>
-      <c r="L73" s="49"/>
+      <c r="L73" s="39"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
@@ -10874,7 +14759,7 @@
       <c r="K74">
         <v>8.4594000000000005</v>
       </c>
-      <c r="L74" s="49"/>
+      <c r="L74" s="39"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
     </row>
@@ -10894,7 +14779,7 @@
       <c r="K75" s="38">
         <v>5.2458999999999998</v>
       </c>
-      <c r="L75" s="49"/>
+      <c r="L75" s="39"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
@@ -10914,7 +14799,7 @@
       <c r="K76">
         <v>8.4567999999999994</v>
       </c>
-      <c r="L76" s="49"/>
+      <c r="L76" s="39"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
@@ -10925,7 +14810,7 @@
       <c r="D77" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="49">
+      <c r="E77" s="39">
         <v>410.06540000000001</v>
       </c>
       <c r="J77" s="38">
@@ -10934,7 +14819,7 @@
       <c r="K77" s="38">
         <v>5.2548000000000004</v>
       </c>
-      <c r="L77" s="49"/>
+      <c r="L77" s="39"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
@@ -10954,7 +14839,7 @@
       <c r="K78">
         <v>9.3539999999999992</v>
       </c>
-      <c r="L78" s="49"/>
+      <c r="L78" s="39"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
@@ -10974,7 +14859,7 @@
       <c r="K79" s="38">
         <v>5.5670000000000002</v>
       </c>
-      <c r="L79" s="49"/>
+      <c r="L79" s="39"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
@@ -10985,7 +14870,7 @@
       <c r="D80" t="s">
         <v>77</v>
       </c>
-      <c r="E80" s="49">
+      <c r="E80" s="39">
         <v>6388.7650000000003</v>
       </c>
       <c r="J80" s="38">
@@ -10994,18 +14879,18 @@
       <c r="K80" s="38">
         <v>9.1564499999999995</v>
       </c>
-      <c r="L80" s="49"/>
+      <c r="L80" s="39"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="2"/>
       <c r="E81" s="38"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
@@ -11013,21 +14898,21 @@
       <c r="C82" s="2"/>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
-      <c r="G82" s="49"/>
+      <c r="G82" s="39"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="2"/>
       <c r="E83" s="38"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
@@ -11035,31 +14920,31 @@
       <c r="C84" s="2"/>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
-      <c r="G84" s="49"/>
+      <c r="G84" s="39"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="2"/>
       <c r="E85" s="38"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
-      <c r="G86" s="49"/>
+      <c r="G86" s="39"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
@@ -11067,11 +14952,11 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="38"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="49"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
@@ -11079,10 +14964,10 @@
       <c r="C88" s="2"/>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
-      <c r="G88" s="49"/>
+      <c r="G88" s="39"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
@@ -15116,8 +19001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:P13"/>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15142,40 +19027,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-      <c r="K2" s="46" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="K2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="R2" s="47" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="R2" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -15238,7 +19123,7 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -15298,7 +19183,7 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
@@ -15356,7 +19241,7 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
@@ -15414,7 +19299,7 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
@@ -15472,7 +19357,7 @@
       </c>
     </row>
     <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
@@ -15576,7 +19461,7 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -15635,7 +19520,7 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
@@ -15692,7 +19577,7 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
@@ -15750,7 +19635,7 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
@@ -15809,7 +19694,7 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
@@ -15851,7 +19736,7 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -15893,7 +19778,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
@@ -15933,7 +19818,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
@@ -15973,7 +19858,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="10" t="s">
         <v>31</v>
       </c>
@@ -16013,7 +19898,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
@@ -16081,7 +19966,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -16123,7 +20008,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
@@ -16163,7 +20048,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
@@ -16203,7 +20088,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
@@ -16244,7 +20129,7 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="48"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="11" t="s">
         <v>32</v>
       </c>
@@ -16628,13 +20513,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="B10:B14"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="K2:P2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16644,8 +20529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
